--- a/Data/Habitat_Data/Protected_Percentage_Data.xlsx
+++ b/Data/Habitat_Data/Protected_Percentage_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Habitat_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB186436-EF38-4A2F-8E96-C9D27ED8D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C88E52-391E-47EA-A108-3E32E749B88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="1248" windowWidth="20928" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="872">
   <si>
     <t>ReachName</t>
   </si>
@@ -2636,6 +2636,9 @@
   </si>
   <si>
     <t>Salmon 16-10</t>
+  </si>
+  <si>
+    <t>Okanogan-Haynes Creek South</t>
   </si>
 </sst>
 </file>
@@ -3024,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="E347" sqref="E347"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C506" sqref="C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11593,7 +11596,7 @@
         <v>4</v>
       </c>
       <c r="C504" t="s">
-        <v>587</v>
+        <v>871</v>
       </c>
       <c r="D504">
         <v>95.326255000000003</v>
@@ -11610,7 +11613,7 @@
         <v>4</v>
       </c>
       <c r="C505" t="s">
-        <v>587</v>
+        <v>871</v>
       </c>
       <c r="D505">
         <v>100</v>
@@ -11627,7 +11630,7 @@
         <v>4</v>
       </c>
       <c r="C506" t="s">
-        <v>587</v>
+        <v>871</v>
       </c>
       <c r="D506">
         <v>20.675082</v>

--- a/Data/Habitat_Data/Protected_Percentage_Data.xlsx
+++ b/Data/Habitat_Data/Protected_Percentage_Data.xlsx
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">Swaram Creek 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Squaw Creek</t>
+    <t xml:space="preserve">Swaram Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Swaram Creek 02</t>
